--- a/国策/人类财阀联合.xlsx
+++ b/国策/人类财阀联合.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Non_E\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9B14E93-4C65-4FBA-8551-8AF50CD14006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24597F80-F2A1-421B-BA76-4C0049727F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{EE8194B7-074F-4F60-9097-9B22AE86D005}"/>
   </bookViews>
@@ -2741,10 +2741,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>幻想乡的太阳{100天}{本居小铃获得“伟人”，其效果为（政治点数：+100%，稳定度：+100%，战争支持度：+100%）}{东方红，太阳升，幻想乡出了个本居小铃}（注：需要九十九工业、斯卡雷特帝国、隙间世界不存在）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>直面真相{60天}{人类财阀联合对隙间世界宣战}{贤者的时代已经过去，人类的时代还在继续}（注：需要隙间世界存在）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5027,6 +5023,10 @@
       </rPr>
       <t>，其效果为（政治点数：+50%，稳定度：+50%，战争支持度：-10%，基础建设建造速度：+100%，民用工厂建造速度：+100%，工厂产出：+50%，不能宣战）}{人类复权运动虽然失败，但人类还能屈身守分，以待天时}</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想乡的太阳{100天}{本居小铃获得“伟人”，其效果为（政治点数：+100%，稳定度：+100%，战争支持度：+100%）}{东方红，太阳升，幻想乡出了个大英雄}（注：需要九十九工业、斯卡雷特帝国、隙间世界不存在）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5440,13 +5440,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29DD07F-8577-41FD-8AE1-A473CB3295FC}">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U39" sqref="U39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -5466,7 +5468,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -5551,7 +5553,7 @@
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.2">
@@ -5631,162 +5633,162 @@
     </row>
     <row r="38" spans="5:21" x14ac:dyDescent="0.2">
       <c r="T38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="5:21" x14ac:dyDescent="0.2">
       <c r="U39" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="5:21" x14ac:dyDescent="0.2">
       <c r="F41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="5:21" x14ac:dyDescent="0.2">
       <c r="G42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="5:21" x14ac:dyDescent="0.2">
       <c r="H43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="5:21" x14ac:dyDescent="0.2">
       <c r="I44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="5:21" x14ac:dyDescent="0.2">
       <c r="J45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="5:21" x14ac:dyDescent="0.2">
       <c r="K46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="5:21" x14ac:dyDescent="0.2">
       <c r="L47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="5:21" x14ac:dyDescent="0.2">
       <c r="M48" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="6:20" x14ac:dyDescent="0.2">
       <c r="N49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="6:20" x14ac:dyDescent="0.2">
       <c r="O50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="6:20" x14ac:dyDescent="0.2">
       <c r="P51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52" spans="6:20" x14ac:dyDescent="0.2">
       <c r="Q52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="6:20" x14ac:dyDescent="0.2">
       <c r="R53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="6:20" x14ac:dyDescent="0.2">
       <c r="S54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="6:20" x14ac:dyDescent="0.2">
       <c r="T55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="6:20" x14ac:dyDescent="0.2">
       <c r="F56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="6:20" x14ac:dyDescent="0.2">
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="6:20" x14ac:dyDescent="0.2">
       <c r="H58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="6:20" x14ac:dyDescent="0.2">
       <c r="I59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="6:20" x14ac:dyDescent="0.2">
       <c r="J60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="6:20" x14ac:dyDescent="0.2">
       <c r="K61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="6:20" x14ac:dyDescent="0.2">
       <c r="L62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="6:20" x14ac:dyDescent="0.2">
       <c r="M63" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="6:20" x14ac:dyDescent="0.2">
       <c r="N64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="O65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="P66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="Q67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.2">
       <c r="R68" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="S69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
@@ -5796,47 +5798,47 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="E74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="F75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="G76" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="H77" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="I78" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J79" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
@@ -5846,47 +5848,47 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D89" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">

--- a/国策/人类财阀联合.xlsx
+++ b/国策/人类财阀联合.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Non_E\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Non_E\documents\GitHub\FocusTree\FocusTree\国策\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24597F80-F2A1-421B-BA76-4C0049727F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18AD3157-7A3F-4E81-A19C-73DFF2839D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{EE8194B7-074F-4F60-9097-9B22AE86D005}"/>
   </bookViews>
@@ -5440,7 +5440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29DD07F-8577-41FD-8AE1-A473CB3295FC}">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0">
       <selection activeCell="U39" sqref="U39"/>
     </sheetView>
   </sheetViews>
